--- a/data/pca/factorExposure/factorExposure_2013-06-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-10.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002082506373394776</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001715743732514691</v>
+      </c>
+      <c r="C2">
+        <v>0.03065217707046045</v>
+      </c>
+      <c r="D2">
+        <v>0.005796727050861969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001734394353513533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005915990351712335</v>
+      </c>
+      <c r="C4">
+        <v>0.08464731495321048</v>
+      </c>
+      <c r="D4">
+        <v>0.08107106487854598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0004600675386266788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01286099822350638</v>
+      </c>
+      <c r="C6">
+        <v>0.1072600274487972</v>
+      </c>
+      <c r="D6">
+        <v>0.03536824438892636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001941444338866273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004873628687472577</v>
+      </c>
+      <c r="C7">
+        <v>0.05130913480518495</v>
+      </c>
+      <c r="D7">
+        <v>0.03837834828993014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.003181601142743404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.00563577369202559</v>
+      </c>
+      <c r="C8">
+        <v>0.03661101701084862</v>
+      </c>
+      <c r="D8">
+        <v>0.04153134079230976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005591182249442312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003905080014138522</v>
+      </c>
+      <c r="C9">
+        <v>0.0687724133364358</v>
+      </c>
+      <c r="D9">
+        <v>0.07044445966578035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.005410056579437945</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005681090094217489</v>
+      </c>
+      <c r="C10">
+        <v>0.07663500450958634</v>
+      </c>
+      <c r="D10">
+        <v>-0.2107487211037676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.005392046759669484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.004911408512658308</v>
+      </c>
+      <c r="C11">
+        <v>0.07854785877651752</v>
+      </c>
+      <c r="D11">
+        <v>0.06571361972734721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0009692187907957467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003682521575807693</v>
+      </c>
+      <c r="C12">
+        <v>0.06302494275767932</v>
+      </c>
+      <c r="D12">
+        <v>0.0471857048835668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.00356691948310225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008467991232901328</v>
+      </c>
+      <c r="C13">
+        <v>0.06913728070774132</v>
+      </c>
+      <c r="D13">
+        <v>0.07130943940582356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.004152516763532167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001557794753496521</v>
+      </c>
+      <c r="C14">
+        <v>0.04639939115088722</v>
+      </c>
+      <c r="D14">
+        <v>0.01389575593491196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.003349877267082104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005505659157846145</v>
+      </c>
+      <c r="C15">
+        <v>0.03758902351262255</v>
+      </c>
+      <c r="D15">
+        <v>0.0408147385335535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002935024573295331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004724680551002596</v>
+      </c>
+      <c r="C16">
+        <v>0.06462625474932759</v>
+      </c>
+      <c r="D16">
+        <v>0.05071558719339815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.001236560918512623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008880563893264259</v>
+      </c>
+      <c r="C20">
+        <v>0.06512008839752199</v>
+      </c>
+      <c r="D20">
+        <v>0.0572629740745053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00420064340227483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009686212027137917</v>
+      </c>
+      <c r="C21">
+        <v>0.02369498161506437</v>
+      </c>
+      <c r="D21">
+        <v>0.0365127706177109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01569216479503976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007126158177662946</v>
+      </c>
+      <c r="C22">
+        <v>0.09023337868502911</v>
+      </c>
+      <c r="D22">
+        <v>0.1019552652082921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01599074845668356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006925180242449958</v>
+      </c>
+      <c r="C23">
+        <v>0.09102094347159717</v>
+      </c>
+      <c r="D23">
+        <v>0.1021177115234589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003995046607824515</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004407564518666401</v>
+      </c>
+      <c r="C24">
+        <v>0.07226870827121819</v>
+      </c>
+      <c r="D24">
+        <v>0.06026545182338444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005614646219134224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002556207446755935</v>
+      </c>
+      <c r="C25">
+        <v>0.07666057990372961</v>
+      </c>
+      <c r="D25">
+        <v>0.06499148694335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006044996544362311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003411850549676129</v>
+      </c>
+      <c r="C26">
+        <v>0.0403696169386011</v>
+      </c>
+      <c r="D26">
+        <v>0.02826357353388551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004757943468473761</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0004511867450351303</v>
+      </c>
+      <c r="C28">
+        <v>0.1266385062696745</v>
+      </c>
+      <c r="D28">
+        <v>-0.3082667220497188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002005915949926125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003170202490793755</v>
+      </c>
+      <c r="C29">
+        <v>0.04739848414306755</v>
+      </c>
+      <c r="D29">
+        <v>0.01736098191439896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005736703175220626</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008671716220983601</v>
+      </c>
+      <c r="C30">
+        <v>0.1374154503684626</v>
+      </c>
+      <c r="D30">
+        <v>0.1085281798367684</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0002153523132999301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006005261528166347</v>
+      </c>
+      <c r="C31">
+        <v>0.0452972933618685</v>
+      </c>
+      <c r="D31">
+        <v>0.03578730390679957</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.002263279915234688</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003839221551051978</v>
+      </c>
+      <c r="C32">
+        <v>0.04018680880267506</v>
+      </c>
+      <c r="D32">
+        <v>0.01440279081184835</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003132207399616507</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007541237779503201</v>
+      </c>
+      <c r="C33">
+        <v>0.08183028349225595</v>
+      </c>
+      <c r="D33">
+        <v>0.07641672200261487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005440743754406462</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003476930929953289</v>
+      </c>
+      <c r="C34">
+        <v>0.05661094106149388</v>
+      </c>
+      <c r="D34">
+        <v>0.04507712421458342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.004330884219641306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004791413174886248</v>
+      </c>
+      <c r="C35">
+        <v>0.0385078526643222</v>
+      </c>
+      <c r="D35">
+        <v>0.01296719445286004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004797806252484446</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001526605060396036</v>
+      </c>
+      <c r="C36">
+        <v>0.02353783969333433</v>
+      </c>
+      <c r="D36">
+        <v>0.02389578142620471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002073731627542414</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009437011206298727</v>
+      </c>
+      <c r="C38">
+        <v>0.0340908103165877</v>
+      </c>
+      <c r="D38">
+        <v>0.03067880640029937</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01359256113463653</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001226688996728035</v>
+      </c>
+      <c r="C39">
+        <v>0.1149013062867657</v>
+      </c>
+      <c r="D39">
+        <v>0.08246628618005117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008158012590351758</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002064898122442573</v>
+      </c>
+      <c r="C40">
+        <v>0.08488071547235169</v>
+      </c>
+      <c r="D40">
+        <v>0.02799453042207315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001540008664739986</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007265864394010696</v>
+      </c>
+      <c r="C41">
+        <v>0.03897126726298454</v>
+      </c>
+      <c r="D41">
+        <v>0.03810112411177768</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002930917600368232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.002995833211780282</v>
+      </c>
+      <c r="C43">
+        <v>0.05068805257379488</v>
+      </c>
+      <c r="D43">
+        <v>0.03001917160912373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005109270499334972</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.0033343244330314</v>
+      </c>
+      <c r="C44">
+        <v>0.1069987359232821</v>
+      </c>
+      <c r="D44">
+        <v>0.08389437220582173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002939634611921304</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002325032545851294</v>
+      </c>
+      <c r="C46">
+        <v>0.0343643625360782</v>
+      </c>
+      <c r="D46">
+        <v>0.03424797433383028</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001792271493188869</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002826755863354779</v>
+      </c>
+      <c r="C47">
+        <v>0.03856648945705098</v>
+      </c>
+      <c r="D47">
+        <v>0.02939331275257845</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003878622959414351</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006407335083817393</v>
+      </c>
+      <c r="C48">
+        <v>0.02911676963771306</v>
+      </c>
+      <c r="D48">
+        <v>0.03162892458443517</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01495115038781622</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01360744627621209</v>
+      </c>
+      <c r="C49">
+        <v>0.1721784374026582</v>
+      </c>
+      <c r="D49">
+        <v>0.03355484302568464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0005934350717469866</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003515329204791001</v>
+      </c>
+      <c r="C50">
+        <v>0.04104221194726188</v>
+      </c>
+      <c r="D50">
+        <v>0.04044249440802496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001825601462806124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.003990255580465567</v>
+      </c>
+      <c r="C51">
+        <v>0.01917541138905668</v>
+      </c>
+      <c r="D51">
+        <v>0.03255985798884941</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001086647081149332</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02004343367147255</v>
+      </c>
+      <c r="C53">
+        <v>0.1656776766831419</v>
+      </c>
+      <c r="D53">
+        <v>0.0528877267641561</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001056203334014104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.00825700237885078</v>
+      </c>
+      <c r="C54">
+        <v>0.05590758928470633</v>
+      </c>
+      <c r="D54">
+        <v>0.04134360316898912</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004155134072846514</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009240350596681665</v>
+      </c>
+      <c r="C55">
+        <v>0.1053227006104888</v>
+      </c>
+      <c r="D55">
+        <v>0.05388743767411566</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003075856158728069</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01930306286714269</v>
+      </c>
+      <c r="C56">
+        <v>0.1718707083929289</v>
+      </c>
+      <c r="D56">
+        <v>0.050760850046313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007968013568899063</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01916507655128813</v>
+      </c>
+      <c r="C58">
+        <v>0.1004787534094643</v>
+      </c>
+      <c r="D58">
+        <v>0.07897252073367485</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.0066758468983108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009112264720232213</v>
+      </c>
+      <c r="C59">
+        <v>0.1689845822596058</v>
+      </c>
+      <c r="D59">
+        <v>-0.2748794256622453</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006241265184062143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02300286667622131</v>
+      </c>
+      <c r="C60">
+        <v>0.221023412774476</v>
+      </c>
+      <c r="D60">
+        <v>0.02772121321818082</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01609799139742348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002277672837265443</v>
+      </c>
+      <c r="C61">
+        <v>0.09471901858980664</v>
+      </c>
+      <c r="D61">
+        <v>0.06159465992123046</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1850054548688191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1434450473745465</v>
+      </c>
+      <c r="C62">
+        <v>0.07434288675126567</v>
+      </c>
+      <c r="D62">
+        <v>0.05276298540109693</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002389308650556886</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006400422753981329</v>
+      </c>
+      <c r="C63">
+        <v>0.05884263193866494</v>
+      </c>
+      <c r="D63">
+        <v>0.02621187037184845</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.007487639516119881</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01442672845893226</v>
+      </c>
+      <c r="C64">
+        <v>0.1003065632792983</v>
+      </c>
+      <c r="D64">
+        <v>0.0676546970773183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>1.943935582262381e-05</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01666122981359647</v>
+      </c>
+      <c r="C65">
+        <v>0.1123155660029327</v>
+      </c>
+      <c r="D65">
+        <v>0.03113643100830603</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.01045608141353155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01172956411822837</v>
+      </c>
+      <c r="C66">
+        <v>0.1531918280338545</v>
+      </c>
+      <c r="D66">
+        <v>0.1192160498387491</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002219362037331747</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01546255923778636</v>
+      </c>
+      <c r="C67">
+        <v>0.06308439486546953</v>
+      </c>
+      <c r="D67">
+        <v>0.04117678505137834</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00741290187970241</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001460324145939497</v>
+      </c>
+      <c r="C68">
+        <v>0.1124204450766874</v>
+      </c>
+      <c r="D68">
+        <v>-0.2629728576238321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003629458321979496</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005658205968784961</v>
+      </c>
+      <c r="C69">
+        <v>0.04521294407531408</v>
+      </c>
+      <c r="D69">
+        <v>0.04483504329245006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001677563216363927</v>
+      </c>
+      <c r="C70">
+        <v>0.002003521463483676</v>
+      </c>
+      <c r="D70">
+        <v>0.002594966595050317</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.003317036504657167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006214684224828534</v>
+      </c>
+      <c r="C71">
+        <v>0.1141772892936123</v>
+      </c>
+      <c r="D71">
+        <v>-0.2824054936642345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008574777164366946</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01488459476709299</v>
+      </c>
+      <c r="C72">
+        <v>0.14931548893311</v>
+      </c>
+      <c r="D72">
+        <v>0.02785662757653038</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01308935714394689</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.029610008746254</v>
+      </c>
+      <c r="C73">
+        <v>0.2836468820273125</v>
+      </c>
+      <c r="D73">
+        <v>0.05164431386094959</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004500933029707895</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001593808661214897</v>
+      </c>
+      <c r="C74">
+        <v>0.1027663176254832</v>
+      </c>
+      <c r="D74">
+        <v>0.04306143721617496</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.00713559753522027</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01043958361112773</v>
+      </c>
+      <c r="C75">
+        <v>0.1307639463550886</v>
+      </c>
+      <c r="D75">
+        <v>0.04118796150538376</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01150081769735135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02101094621164295</v>
+      </c>
+      <c r="C76">
+        <v>0.1449643889332749</v>
+      </c>
+      <c r="D76">
+        <v>0.07299197733251407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002498982832362291</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02321394882774811</v>
+      </c>
+      <c r="C77">
+        <v>0.1276262696682136</v>
+      </c>
+      <c r="D77">
+        <v>0.06255708634290646</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0005180818126747756</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01379187450093526</v>
+      </c>
+      <c r="C78">
+        <v>0.09026235787119163</v>
+      </c>
+      <c r="D78">
+        <v>0.06747270963379765</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02758063114578336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03658128289866805</v>
+      </c>
+      <c r="C79">
+        <v>0.1563437148009292</v>
+      </c>
+      <c r="D79">
+        <v>0.03647926632224759</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005250593834901138</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01051317194756054</v>
+      </c>
+      <c r="C80">
+        <v>0.04158161923508138</v>
+      </c>
+      <c r="D80">
+        <v>0.03467310375201164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0002089025584057902</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01441938186396751</v>
+      </c>
+      <c r="C81">
+        <v>0.1197566582550957</v>
+      </c>
+      <c r="D81">
+        <v>0.05822090559299338</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006388284287650857</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01944462359849452</v>
+      </c>
+      <c r="C82">
+        <v>0.1419325448610399</v>
+      </c>
+      <c r="D82">
+        <v>0.04761287284208374</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006700591423238252</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009677316641488614</v>
+      </c>
+      <c r="C83">
+        <v>0.05540864515834153</v>
+      </c>
+      <c r="D83">
+        <v>0.05080557101533494</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01371854533040277</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01161395930643339</v>
+      </c>
+      <c r="C84">
+        <v>0.0300743485395891</v>
+      </c>
+      <c r="D84">
+        <v>0.0003291642354188019</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01718519470348417</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02777907995503888</v>
+      </c>
+      <c r="C85">
+        <v>0.1290489349479208</v>
+      </c>
+      <c r="D85">
+        <v>0.05319147496128652</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003615736311106013</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005234949739913911</v>
+      </c>
+      <c r="C86">
+        <v>0.04628409178352869</v>
+      </c>
+      <c r="D86">
+        <v>0.02484919151627921</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007628728262138245</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009539110685154846</v>
+      </c>
+      <c r="C87">
+        <v>0.1270319741596636</v>
+      </c>
+      <c r="D87">
+        <v>0.08014166927063679</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01421531871266815</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003085696746402493</v>
+      </c>
+      <c r="C88">
+        <v>0.06933474890727703</v>
+      </c>
+      <c r="D88">
+        <v>0.02058672081967054</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01466605306565557</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001169805268481707</v>
+      </c>
+      <c r="C89">
+        <v>0.1644389768080147</v>
+      </c>
+      <c r="D89">
+        <v>-0.3439420468664744</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001390843774842801</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007291277721500595</v>
+      </c>
+      <c r="C90">
+        <v>0.1450229725289049</v>
+      </c>
+      <c r="D90">
+        <v>-0.3175473240608477</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001945361329427238</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01005408814550438</v>
+      </c>
+      <c r="C91">
+        <v>0.1025601645776727</v>
+      </c>
+      <c r="D91">
+        <v>0.02355348516948044</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.013877361839635</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.000337511903914086</v>
+      </c>
+      <c r="C92">
+        <v>0.1536115681033951</v>
+      </c>
+      <c r="D92">
+        <v>-0.3274439279476112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001576354286937483</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005215921475325297</v>
+      </c>
+      <c r="C93">
+        <v>0.1262893492647458</v>
+      </c>
+      <c r="D93">
+        <v>-0.3087275454934289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003689608368976916</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02184855650533481</v>
+      </c>
+      <c r="C94">
+        <v>0.1581902073768916</v>
+      </c>
+      <c r="D94">
+        <v>0.03549478757014041</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005933152107852997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01587679026766261</v>
+      </c>
+      <c r="C95">
+        <v>0.1226874436384354</v>
+      </c>
+      <c r="D95">
+        <v>0.06993958333813989</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.004329398614461304</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03476493179889932</v>
+      </c>
+      <c r="C97">
+        <v>0.1754073950067035</v>
+      </c>
+      <c r="D97">
+        <v>0.04197383178429348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.006163403312986753</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03543816916512766</v>
+      </c>
+      <c r="C98">
+        <v>0.2580201580051719</v>
+      </c>
+      <c r="D98">
+        <v>0.04335189802093357</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9803134094024861</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9829321295459897</v>
+      </c>
+      <c r="C99">
+        <v>-0.1073906019563348</v>
+      </c>
+      <c r="D99">
+        <v>-0.0326130679773557</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001954296164231039</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003221040722322991</v>
+      </c>
+      <c r="C101">
+        <v>0.04755128030271567</v>
+      </c>
+      <c r="D101">
+        <v>0.01767177029745768</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
